--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1972376.974375084</v>
+        <v>1970124.894663875</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>148.4399041872968</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915361056</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335173</v>
       </c>
       <c r="W4" t="n">
-        <v>147.7402965931886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>67.37512149318637</v>
+        <v>376.227471406718</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>41.45703344346446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>36.69369469525667</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>247.4877090572679</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>192.1675620474802</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377022</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137047</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507434</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>35.41770597126747</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708034</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583159</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.2474982886088</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711727</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746454</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.88994825141668</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>31.8302520576408</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667506</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1767.878520285688</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1767.878520285688</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,22 +4325,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285688</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>922.6774975139006</v>
+        <v>940.1867949801995</v>
       </c>
       <c r="X4" t="n">
-        <v>922.6774975139006</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.6774975139006</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>552.807938939214</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D5" t="n">
-        <v>194.5422403324635</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.6654861422326</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C7" t="n">
         <v>212.7293032143256</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1885.418756731458</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1663.652141300984</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1374.549274426628</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1119.864786220741</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>830.44761618378</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X7" t="n">
-        <v>602.4580652857627</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.6654861422326</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495404</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>769.4825048886535</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>769.4825048886535</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>358.4966000990459</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
         <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5297,10 +5297,10 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770301</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>634.3345878491232</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400717</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072698</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5543,10 +5543,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,37 +5671,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038356</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797757</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854707</v>
@@ -5710,13 +5710,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075816</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890283</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.11872044489</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1363.885660588918</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1143.093081445388</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257537</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433606</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433606</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>267.6802639609665</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>267.6802639609665</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>267.6802639609665</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>125.9684328031646</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092564</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684188</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788442</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>145.6085800303771</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823374</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.6999868309282</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.58448189332852</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516910951</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762346</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667957</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>49.4355842609247</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="16">
@@ -26317,10 +26317,10 @@
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830046</v>
@@ -26329,19 +26329,19 @@
         <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.40260464529274e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,10 +26430,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26445,13 +26445,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181804</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.920181818</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26497,13 +26497,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>375221.3433904358</v>
       </c>
       <c r="D6" t="n">
-        <v>375221.3433904359</v>
+        <v>375221.3433904358</v>
       </c>
       <c r="E6" t="n">
-        <v>126080.7079699241</v>
+        <v>126045.9700444886</v>
       </c>
       <c r="F6" t="n">
-        <v>451493.1697772794</v>
+        <v>451458.4318518437</v>
       </c>
       <c r="G6" t="n">
-        <v>451493.1697772794</v>
+        <v>451458.4318518437</v>
       </c>
       <c r="H6" t="n">
-        <v>451493.1697772795</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="I6" t="n">
-        <v>451493.1697772794</v>
+        <v>451458.4318518434</v>
       </c>
       <c r="J6" t="n">
-        <v>233961.9673800021</v>
+        <v>233927.2294545662</v>
       </c>
       <c r="K6" t="n">
-        <v>451493.1697772792</v>
+        <v>451458.4318518438</v>
       </c>
       <c r="L6" t="n">
-        <v>451493.1697772797</v>
+        <v>451458.4318518434</v>
       </c>
       <c r="M6" t="n">
-        <v>366438.1418417674</v>
+        <v>366403.4039163318</v>
       </c>
       <c r="N6" t="n">
-        <v>451493.1697772794</v>
+        <v>451458.4318518438</v>
       </c>
       <c r="O6" t="n">
-        <v>451493.1697772793</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="P6" t="n">
-        <v>451493.1697772794</v>
+        <v>451458.4318518437</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,10 +26984,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>206.2431374333862</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.2767095024431</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903107</v>
       </c>
       <c r="W4" t="n">
-        <v>138.7827017434024</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>314.5552485790754</v>
+        <v>5.702898665543785</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>148.3119918879774</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>249.8293036413343</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>163.4340165961856</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>94.0442761581327</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-2.815584996167106e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32336,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236508</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753693</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.867923325071</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884141</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118732</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>391.6051949514468</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.286271753351</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999026</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417378</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.7852262023926</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777931999</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.0508151715727</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
